--- a/branches/pt-branch/StructureDefinition-IDMPPharmaceuticalProduct.xlsx
+++ b/branches/pt-branch/StructureDefinition-IDMPPharmaceuticalProduct.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5627" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5627" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-20T14:38:33+00:00</t>
+    <t>2022-10-06T17:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -274,7 +274,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -494,6 +494,10 @@
   </si>
   <si>
     <t>MedicationKnowledge.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2034,42 +2038,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="82.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="82.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.3046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.01953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.12109375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.5859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.58984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.93359375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.9375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="81.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="46.52734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="46.53125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
@@ -3327,13 +3331,13 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3384,7 +3388,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3399,7 +3403,7 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
@@ -3413,7 +3417,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3442,7 +3446,7 @@
         <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>132</v>
@@ -3483,19 +3487,19 @@
         <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -3510,7 +3514,7 @@
         <v>134</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
@@ -3524,7 +3528,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3547,19 +3551,19 @@
         <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
@@ -3596,17 +3600,17 @@
         <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3621,7 +3625,7 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>75</v>
@@ -3630,15 +3634,15 @@
         <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>75</v>
@@ -3660,19 +3664,19 @@
         <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>75</v>
@@ -3721,7 +3725,7 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -3736,7 +3740,7 @@
         <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -3745,12 +3749,12 @@
         <v>75</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3773,13 +3777,13 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3830,7 +3834,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -3845,7 +3849,7 @@
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -3859,7 +3863,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3888,7 +3892,7 @@
         <v>130</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>132</v>
@@ -3929,19 +3933,19 @@
         <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3956,7 +3960,7 @@
         <v>134</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>75</v>
@@ -3970,7 +3974,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3996,16 +4000,16 @@
         <v>97</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>75</v>
@@ -4015,7 +4019,7 @@
         <v>75</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>75</v>
@@ -4054,7 +4058,7 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -4069,7 +4073,7 @@
         <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
@@ -4078,12 +4082,12 @@
         <v>75</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4106,16 +4110,16 @@
         <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4165,7 +4169,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -4180,7 +4184,7 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>75</v>
@@ -4189,12 +4193,12 @@
         <v>75</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4220,14 +4224,14 @@
         <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -4276,7 +4280,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -4291,7 +4295,7 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
@@ -4300,12 +4304,12 @@
         <v>75</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4328,17 +4332,17 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>75</v>
@@ -4387,7 +4391,7 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -4402,7 +4406,7 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>75</v>
@@ -4411,12 +4415,12 @@
         <v>75</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4439,19 +4443,19 @@
         <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>75</v>
@@ -4500,7 +4504,7 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -4515,7 +4519,7 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
@@ -4524,12 +4528,12 @@
         <v>75</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4552,19 +4556,19 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>75</v>
@@ -4613,7 +4617,7 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4628,7 +4632,7 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
@@ -4637,12 +4641,12 @@
         <v>75</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4668,13 +4672,13 @@
         <v>103</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4700,13 +4704,13 @@
         <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>75</v>
@@ -4724,7 +4728,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4739,7 +4743,7 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
@@ -4753,7 +4757,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4776,13 +4780,13 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4833,7 +4837,7 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4848,21 +4852,21 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4888,13 +4892,13 @@
         <v>141</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4923,10 +4927,10 @@
         <v>145</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>75</v>
@@ -4944,7 +4948,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4959,21 +4963,21 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4996,13 +5000,13 @@
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5053,7 +5057,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -5068,7 +5072,7 @@
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>75</v>
@@ -5082,7 +5086,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5111,7 +5115,7 @@
         <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>132</v>
@@ -5152,19 +5156,19 @@
         <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5179,7 +5183,7 @@
         <v>134</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>75</v>
@@ -5193,7 +5197,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5216,19 +5220,19 @@
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>75</v>
@@ -5265,17 +5269,17 @@
         <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5290,7 +5294,7 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
@@ -5299,15 +5303,15 @@
         <v>75</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>75</v>
@@ -5329,19 +5333,19 @@
         <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>75</v>
@@ -5390,7 +5394,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5405,7 +5409,7 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>75</v>
@@ -5414,12 +5418,12 @@
         <v>75</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5442,13 +5446,13 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5499,7 +5503,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5514,7 +5518,7 @@
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
@@ -5528,7 +5532,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5557,7 +5561,7 @@
         <v>130</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>132</v>
@@ -5598,19 +5602,19 @@
         <v>75</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5625,7 +5629,7 @@
         <v>134</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>75</v>
@@ -5639,7 +5643,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5665,16 +5669,16 @@
         <v>97</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>75</v>
@@ -5684,7 +5688,7 @@
         <v>75</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>75</v>
@@ -5723,7 +5727,7 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5738,7 +5742,7 @@
         <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>75</v>
@@ -5747,12 +5751,12 @@
         <v>75</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5775,16 +5779,16 @@
         <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5834,7 +5838,7 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5849,7 +5853,7 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
@@ -5858,12 +5862,12 @@
         <v>75</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5889,14 +5893,14 @@
         <v>103</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>75</v>
@@ -5945,7 +5949,7 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5960,7 +5964,7 @@
         <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>75</v>
@@ -5969,12 +5973,12 @@
         <v>75</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5997,17 +6001,17 @@
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>75</v>
@@ -6056,7 +6060,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -6071,7 +6075,7 @@
         <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
@@ -6080,12 +6084,12 @@
         <v>75</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6108,19 +6112,19 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>75</v>
@@ -6169,7 +6173,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6184,7 +6188,7 @@
         <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -6193,12 +6197,12 @@
         <v>75</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6221,19 +6225,19 @@
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>75</v>
@@ -6282,7 +6286,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6297,7 +6301,7 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
@@ -6306,12 +6310,12 @@
         <v>75</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6334,16 +6338,16 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6393,7 +6397,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6408,7 +6412,7 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -6422,7 +6426,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6445,13 +6449,13 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6502,7 +6506,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6531,7 +6535,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6554,13 +6558,13 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6611,7 +6615,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6640,7 +6644,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6663,13 +6667,13 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6720,7 +6724,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6735,7 +6739,7 @@
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
@@ -6749,7 +6753,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6778,7 +6782,7 @@
         <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>132</v>
@@ -6831,7 +6835,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6846,7 +6850,7 @@
         <v>134</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
@@ -6860,11 +6864,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6886,10 +6890,10 @@
         <v>129</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>132</v>
@@ -6944,7 +6948,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6973,7 +6977,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6999,10 +7003,10 @@
         <v>141</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7053,7 +7057,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>83</v>
@@ -7082,7 +7086,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7105,13 +7109,13 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7162,7 +7166,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>83</v>
@@ -7191,7 +7195,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7214,13 +7218,13 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7271,7 +7275,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7300,7 +7304,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7326,10 +7330,10 @@
         <v>141</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7380,7 +7384,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7409,7 +7413,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7432,13 +7436,13 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7489,7 +7493,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7518,7 +7522,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7541,13 +7545,13 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7598,7 +7602,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7613,7 +7617,7 @@
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
@@ -7627,7 +7631,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7656,7 +7660,7 @@
         <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>132</v>
@@ -7709,7 +7713,7 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7724,7 +7728,7 @@
         <v>134</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
@@ -7738,11 +7742,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7764,10 +7768,10 @@
         <v>129</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>132</v>
@@ -7822,7 +7826,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7851,7 +7855,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7877,10 +7881,10 @@
         <v>141</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7931,7 +7935,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7960,7 +7964,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7983,13 +7987,13 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8040,7 +8044,7 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -8069,7 +8073,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8092,13 +8096,13 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8149,7 +8153,7 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8178,7 +8182,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8201,13 +8205,13 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8258,7 +8262,7 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8273,7 +8277,7 @@
         <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
@@ -8287,7 +8291,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8316,7 +8320,7 @@
         <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>132</v>
@@ -8369,7 +8373,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8384,7 +8388,7 @@
         <v>134</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
@@ -8398,11 +8402,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8424,10 +8428,10 @@
         <v>129</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>132</v>
@@ -8482,7 +8486,7 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8511,7 +8515,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8534,13 +8538,13 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8591,7 +8595,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>83</v>
@@ -8606,7 +8610,7 @@
         <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>149</v>
@@ -8615,12 +8619,12 @@
         <v>75</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8643,17 +8647,17 @@
         <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>75</v>
@@ -8702,7 +8706,7 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -8717,7 +8721,7 @@
         <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
@@ -8731,7 +8735,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8754,13 +8758,13 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8811,7 +8815,7 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8826,21 +8830,21 @@
         <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8863,13 +8867,13 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8920,7 +8924,7 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8935,7 +8939,7 @@
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
@@ -8949,7 +8953,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8957,7 +8961,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>77</v>
@@ -8975,10 +8979,10 @@
         <v>129</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9017,19 +9021,19 @@
         <v>75</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9058,10 +9062,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>75</v>
@@ -9083,13 +9087,13 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9140,7 +9144,7 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9169,10 +9173,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>75</v>
@@ -9194,13 +9198,13 @@
         <v>75</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9251,7 +9255,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9280,10 +9284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>75</v>
@@ -9305,13 +9309,13 @@
         <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9362,7 +9366,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9391,10 +9395,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>75</v>
@@ -9416,13 +9420,13 @@
         <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9473,7 +9477,7 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9502,7 +9506,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9525,13 +9529,13 @@
         <v>84</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9582,7 +9586,7 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -9597,7 +9601,7 @@
         <v>95</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
@@ -9611,7 +9615,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9634,13 +9638,13 @@
         <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9691,7 +9695,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -9706,7 +9710,7 @@
         <v>95</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
@@ -9720,7 +9724,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9743,13 +9747,13 @@
         <v>75</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9800,7 +9804,7 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -9829,7 +9833,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9855,10 +9859,10 @@
         <v>141</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9888,26 +9892,26 @@
         <v>145</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB71" s="2"/>
       <c r="AC71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9936,10 +9940,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>75</v>
@@ -9964,10 +9968,10 @@
         <v>141</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9997,10 +10001,10 @@
         <v>145</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>75</v>
@@ -10018,7 +10022,7 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -10047,7 +10051,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10070,13 +10074,13 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10127,7 +10131,7 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -10142,7 +10146,7 @@
         <v>75</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>75</v>
@@ -10156,7 +10160,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10185,7 +10189,7 @@
         <v>130</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>132</v>
@@ -10226,19 +10230,19 @@
         <v>75</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10253,7 +10257,7 @@
         <v>134</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>75</v>
@@ -10267,7 +10271,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10290,19 +10294,19 @@
         <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>75</v>
@@ -10351,7 +10355,7 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -10366,7 +10370,7 @@
         <v>95</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>75</v>
@@ -10375,12 +10379,12 @@
         <v>75</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10403,13 +10407,13 @@
         <v>75</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10460,7 +10464,7 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
@@ -10475,7 +10479,7 @@
         <v>75</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
@@ -10489,7 +10493,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10518,7 +10522,7 @@
         <v>130</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>132</v>
@@ -10559,19 +10563,19 @@
         <v>75</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -10586,7 +10590,7 @@
         <v>134</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
@@ -10600,7 +10604,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10626,16 +10630,16 @@
         <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>75</v>
@@ -10645,7 +10649,7 @@
         <v>75</v>
       </c>
       <c r="R78" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>75</v>
@@ -10684,7 +10688,7 @@
         <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
@@ -10699,7 +10703,7 @@
         <v>95</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
@@ -10708,12 +10712,12 @@
         <v>75</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10736,16 +10740,16 @@
         <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10795,7 +10799,7 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -10810,7 +10814,7 @@
         <v>95</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
@@ -10819,12 +10823,12 @@
         <v>75</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10850,14 +10854,14 @@
         <v>103</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>75</v>
@@ -10906,7 +10910,7 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -10921,7 +10925,7 @@
         <v>95</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>75</v>
@@ -10930,12 +10934,12 @@
         <v>75</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10958,17 +10962,17 @@
         <v>84</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>75</v>
@@ -11017,7 +11021,7 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -11032,7 +11036,7 @@
         <v>95</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>75</v>
@@ -11041,12 +11045,12 @@
         <v>75</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11069,19 +11073,19 @@
         <v>84</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>75</v>
@@ -11130,7 +11134,7 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
@@ -11145,7 +11149,7 @@
         <v>95</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>75</v>
@@ -11154,12 +11158,12 @@
         <v>75</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11182,19 +11186,19 @@
         <v>84</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>75</v>
@@ -11243,7 +11247,7 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -11258,7 +11262,7 @@
         <v>95</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>75</v>
@@ -11267,12 +11271,12 @@
         <v>75</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11295,13 +11299,13 @@
         <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11352,7 +11356,7 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
@@ -11381,7 +11385,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11404,13 +11408,13 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11461,7 +11465,7 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -11476,7 +11480,7 @@
         <v>75</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>75</v>
@@ -11490,7 +11494,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11519,7 +11523,7 @@
         <v>130</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>132</v>
@@ -11572,7 +11576,7 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -11587,7 +11591,7 @@
         <v>134</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>75</v>
@@ -11601,11 +11605,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11627,10 +11631,10 @@
         <v>129</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>132</v>
@@ -11685,7 +11689,7 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -11714,7 +11718,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11740,10 +11744,10 @@
         <v>141</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11794,7 +11798,7 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>83</v>
@@ -11823,7 +11827,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11846,13 +11850,13 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11903,7 +11907,7 @@
         <v>75</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -11932,7 +11936,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11955,13 +11959,13 @@
         <v>75</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12012,7 +12016,7 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>83</v>
@@ -12041,7 +12045,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12064,13 +12068,13 @@
         <v>75</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12121,7 +12125,7 @@
         <v>75</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -12150,7 +12154,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12173,13 +12177,13 @@
         <v>75</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12230,7 +12234,7 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
@@ -12245,7 +12249,7 @@
         <v>75</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>75</v>
@@ -12259,7 +12263,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12288,7 +12292,7 @@
         <v>130</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>132</v>
@@ -12341,7 +12345,7 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
@@ -12356,7 +12360,7 @@
         <v>134</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>75</v>
@@ -12370,11 +12374,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12396,10 +12400,10 @@
         <v>129</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>132</v>
@@ -12454,7 +12458,7 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
@@ -12483,7 +12487,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12509,10 +12513,10 @@
         <v>141</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12563,7 +12567,7 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>76</v>
@@ -12592,7 +12596,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12615,13 +12619,13 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12672,7 +12676,7 @@
         <v>75</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>76</v>
@@ -12701,7 +12705,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12724,13 +12728,13 @@
         <v>75</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12781,7 +12785,7 @@
         <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>76</v>
@@ -12810,7 +12814,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12833,13 +12837,13 @@
         <v>75</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12890,7 +12894,7 @@
         <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>76</v>
@@ -12905,7 +12909,7 @@
         <v>75</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>75</v>
@@ -12919,7 +12923,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12948,7 +12952,7 @@
         <v>130</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>132</v>
@@ -13001,7 +13005,7 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>76</v>
@@ -13016,7 +13020,7 @@
         <v>134</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>75</v>
@@ -13030,11 +13034,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13056,10 +13060,10 @@
         <v>129</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>132</v>
@@ -13114,7 +13118,7 @@
         <v>75</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>76</v>
@@ -13143,7 +13147,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13166,13 +13170,13 @@
         <v>75</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13223,7 +13227,7 @@
         <v>75</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>76</v>
@@ -13252,7 +13256,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13275,13 +13279,13 @@
         <v>75</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13332,7 +13336,7 @@
         <v>75</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>76</v>
@@ -13347,7 +13351,7 @@
         <v>75</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>75</v>
@@ -13361,7 +13365,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13390,7 +13394,7 @@
         <v>130</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>132</v>
@@ -13443,7 +13447,7 @@
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>76</v>
@@ -13458,7 +13462,7 @@
         <v>134</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>75</v>
@@ -13472,11 +13476,11 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13498,10 +13502,10 @@
         <v>129</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M104" t="s" s="2">
         <v>132</v>
@@ -13556,7 +13560,7 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>76</v>
@@ -13585,7 +13589,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13611,10 +13615,10 @@
         <v>141</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13665,7 +13669,7 @@
         <v>75</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>83</v>
@@ -13694,7 +13698,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13717,13 +13721,13 @@
         <v>75</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13774,7 +13778,7 @@
         <v>75</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>83</v>
@@ -13803,7 +13807,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13826,13 +13830,13 @@
         <v>75</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13883,7 +13887,7 @@
         <v>75</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>76</v>
@@ -13912,7 +13916,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13935,13 +13939,13 @@
         <v>75</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13992,7 +13996,7 @@
         <v>75</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>76</v>
@@ -14021,7 +14025,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14044,13 +14048,13 @@
         <v>75</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14101,7 +14105,7 @@
         <v>75</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>76</v>
@@ -14116,7 +14120,7 @@
         <v>75</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>75</v>
@@ -14130,7 +14134,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14159,7 +14163,7 @@
         <v>130</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>132</v>
@@ -14212,7 +14216,7 @@
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>76</v>
@@ -14227,7 +14231,7 @@
         <v>134</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>75</v>
@@ -14241,11 +14245,11 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14267,10 +14271,10 @@
         <v>129</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>132</v>
@@ -14325,7 +14329,7 @@
         <v>75</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
@@ -14354,7 +14358,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14377,13 +14381,13 @@
         <v>75</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14434,7 +14438,7 @@
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>83</v>
@@ -14463,7 +14467,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14486,13 +14490,13 @@
         <v>75</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14543,7 +14547,7 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>
@@ -14572,7 +14576,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14595,13 +14599,13 @@
         <v>75</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -14652,7 +14656,7 @@
         <v>75</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>76</v>
@@ -14681,7 +14685,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14704,13 +14708,13 @@
         <v>75</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14761,7 +14765,7 @@
         <v>75</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>76</v>
@@ -14776,7 +14780,7 @@
         <v>75</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>75</v>
@@ -14790,7 +14794,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14819,7 +14823,7 @@
         <v>130</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>132</v>
@@ -14872,7 +14876,7 @@
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>76</v>
@@ -14887,7 +14891,7 @@
         <v>134</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>75</v>
@@ -14901,11 +14905,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14927,10 +14931,10 @@
         <v>129</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>132</v>
@@ -14985,7 +14989,7 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>76</v>
@@ -15014,7 +15018,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15040,10 +15044,10 @@
         <v>141</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -15094,7 +15098,7 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>83</v>
@@ -15123,7 +15127,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15149,10 +15153,10 @@
         <v>141</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15203,7 +15207,7 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>76</v>
@@ -15232,7 +15236,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15255,13 +15259,13 @@
         <v>75</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -15312,7 +15316,7 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>76</v>
@@ -15341,7 +15345,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15364,13 +15368,13 @@
         <v>75</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15421,7 +15425,7 @@
         <v>75</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>76</v>
@@ -15436,7 +15440,7 @@
         <v>75</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>75</v>
@@ -15450,7 +15454,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15479,7 +15483,7 @@
         <v>130</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>132</v>
@@ -15532,7 +15536,7 @@
         <v>75</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>76</v>
@@ -15547,7 +15551,7 @@
         <v>134</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>75</v>
@@ -15561,11 +15565,11 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15587,10 +15591,10 @@
         <v>129</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>132</v>
@@ -15645,7 +15649,7 @@
         <v>75</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>76</v>
@@ -15674,7 +15678,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15700,10 +15704,10 @@
         <v>141</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -15733,10 +15737,10 @@
         <v>145</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>75</v>
@@ -15754,7 +15758,7 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>76</v>
@@ -15783,7 +15787,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15806,13 +15810,13 @@
         <v>75</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15863,7 +15867,7 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>76</v>
@@ -15892,7 +15896,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15915,13 +15919,13 @@
         <v>75</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15972,7 +15976,7 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>76</v>
@@ -16001,7 +16005,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16024,13 +16028,13 @@
         <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -16081,7 +16085,7 @@
         <v>75</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>76</v>
@@ -16096,7 +16100,7 @@
         <v>75</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>75</v>
@@ -16110,7 +16114,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16139,7 +16143,7 @@
         <v>130</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>132</v>
@@ -16192,7 +16196,7 @@
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>76</v>
@@ -16207,7 +16211,7 @@
         <v>134</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>75</v>
@@ -16221,11 +16225,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16247,10 +16251,10 @@
         <v>129</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>132</v>
@@ -16305,7 +16309,7 @@
         <v>75</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>76</v>
@@ -16334,7 +16338,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16360,10 +16364,10 @@
         <v>141</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -16393,10 +16397,10 @@
         <v>145</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>75</v>
@@ -16414,7 +16418,7 @@
         <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>76</v>
@@ -16443,7 +16447,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16466,16 +16470,16 @@
         <v>75</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -16525,7 +16529,7 @@
         <v>75</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>76</v>
@@ -16554,7 +16558,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16577,13 +16581,13 @@
         <v>75</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -16634,7 +16638,7 @@
         <v>75</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>76</v>
@@ -16663,7 +16667,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16686,13 +16690,13 @@
         <v>75</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -16743,7 +16747,7 @@
         <v>75</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>76</v>
@@ -16772,7 +16776,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16795,13 +16799,13 @@
         <v>75</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16852,7 +16856,7 @@
         <v>75</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>76</v>
@@ -16867,7 +16871,7 @@
         <v>75</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>75</v>
@@ -16881,7 +16885,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16910,7 +16914,7 @@
         <v>130</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M135" t="s" s="2">
         <v>132</v>
@@ -16963,7 +16967,7 @@
         <v>75</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>76</v>
@@ -16978,7 +16982,7 @@
         <v>134</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>75</v>
@@ -16992,11 +16996,11 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17018,10 +17022,10 @@
         <v>129</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M136" t="s" s="2">
         <v>132</v>
@@ -17076,7 +17080,7 @@
         <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>76</v>
@@ -17105,7 +17109,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17128,13 +17132,13 @@
         <v>75</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -17185,7 +17189,7 @@
         <v>75</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>83</v>
@@ -17214,7 +17218,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17237,13 +17241,13 @@
         <v>75</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -17294,7 +17298,7 @@
         <v>75</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>76</v>
@@ -17323,7 +17327,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17346,13 +17350,13 @@
         <v>75</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17403,7 +17407,7 @@
         <v>75</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>76</v>
@@ -17418,7 +17422,7 @@
         <v>75</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>75</v>
@@ -17432,7 +17436,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17461,7 +17465,7 @@
         <v>130</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M140" t="s" s="2">
         <v>132</v>
@@ -17514,7 +17518,7 @@
         <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>76</v>
@@ -17529,7 +17533,7 @@
         <v>134</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>75</v>
@@ -17543,11 +17547,11 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -17569,10 +17573,10 @@
         <v>129</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M141" t="s" s="2">
         <v>132</v>
@@ -17627,7 +17631,7 @@
         <v>75</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>76</v>
@@ -17656,7 +17660,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17682,10 +17686,10 @@
         <v>141</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -17736,7 +17740,7 @@
         <v>75</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>83</v>
@@ -17765,7 +17769,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17788,13 +17792,13 @@
         <v>75</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17845,7 +17849,7 @@
         <v>75</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>83</v>
@@ -17874,7 +17878,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17897,13 +17901,13 @@
         <v>75</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17954,7 +17958,7 @@
         <v>75</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>76</v>
@@ -17983,7 +17987,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18006,13 +18010,13 @@
         <v>75</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -18063,7 +18067,7 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>76</v>
@@ -18078,7 +18082,7 @@
         <v>75</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>75</v>
@@ -18092,7 +18096,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18121,7 +18125,7 @@
         <v>130</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>132</v>
@@ -18174,7 +18178,7 @@
         <v>75</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>76</v>
@@ -18189,7 +18193,7 @@
         <v>134</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>75</v>
@@ -18203,11 +18207,11 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18229,10 +18233,10 @@
         <v>129</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M147" t="s" s="2">
         <v>132</v>
@@ -18287,7 +18291,7 @@
         <v>75</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>76</v>
@@ -18316,7 +18320,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18342,10 +18346,10 @@
         <v>141</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -18396,7 +18400,7 @@
         <v>75</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>83</v>
@@ -18425,7 +18429,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18448,13 +18452,13 @@
         <v>75</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -18505,7 +18509,7 @@
         <v>75</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>76</v>
@@ -18534,7 +18538,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18557,13 +18561,13 @@
         <v>75</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -18614,7 +18618,7 @@
         <v>75</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>76</v>
@@ -18629,7 +18633,7 @@
         <v>75</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>75</v>
@@ -18643,7 +18647,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18672,7 +18676,7 @@
         <v>130</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M151" t="s" s="2">
         <v>132</v>
@@ -18725,7 +18729,7 @@
         <v>75</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>76</v>
@@ -18740,7 +18744,7 @@
         <v>134</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>75</v>
@@ -18754,11 +18758,11 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -18780,10 +18784,10 @@
         <v>129</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>132</v>
@@ -18838,7 +18842,7 @@
         <v>75</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>76</v>
@@ -18867,7 +18871,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18890,13 +18894,13 @@
         <v>75</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18947,7 +18951,7 @@
         <v>75</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>83</v>
@@ -18976,7 +18980,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18999,13 +19003,13 @@
         <v>75</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -19056,7 +19060,7 @@
         <v>75</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>76</v>
@@ -19085,7 +19089,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19108,13 +19112,13 @@
         <v>75</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -19165,7 +19169,7 @@
         <v>75</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>76</v>
@@ -19194,7 +19198,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19217,13 +19221,13 @@
         <v>75</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -19274,7 +19278,7 @@
         <v>75</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>76</v>
@@ -19289,7 +19293,7 @@
         <v>75</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>75</v>
@@ -19303,7 +19307,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19332,7 +19336,7 @@
         <v>130</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M157" t="s" s="2">
         <v>132</v>
@@ -19385,7 +19389,7 @@
         <v>75</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>76</v>
@@ -19400,7 +19404,7 @@
         <v>134</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>75</v>
@@ -19414,11 +19418,11 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -19440,10 +19444,10 @@
         <v>129</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M158" t="s" s="2">
         <v>132</v>
@@ -19498,7 +19502,7 @@
         <v>75</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>76</v>
@@ -19527,7 +19531,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19550,13 +19554,13 @@
         <v>75</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19607,7 +19611,7 @@
         <v>75</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>76</v>
@@ -19636,7 +19640,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19659,13 +19663,13 @@
         <v>75</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -19716,7 +19720,7 @@
         <v>75</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>76</v>
@@ -19745,7 +19749,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19768,13 +19772,13 @@
         <v>75</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -19825,7 +19829,7 @@
         <v>75</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>76</v>

--- a/branches/pt-branch/StructureDefinition-IDMPPharmaceuticalProduct.xlsx
+++ b/branches/pt-branch/StructureDefinition-IDMPPharmaceuticalProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T17:30:01+00:00</t>
+    <t>2022-10-06T17:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
